--- a/01 - Planificación del Trabajo/estadisticoHorasEmpleadas.xlsx
+++ b/01 - Planificación del Trabajo/estadisticoHorasEmpleadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés Martín Yeves\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés Martín Yeves\Desktop\TP1\SE\TP1SE\01 - Planificación del Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573C17F9-A142-4F07-89EF-0D69F7716211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50143903-467E-40DC-A295-124C0B9E22B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -314,6 +314,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -354,6 +402,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
+                <c:pt idx="0">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -394,6 +487,45 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
+                <c:pt idx="0">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -434,6 +566,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1554,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6FB7-D46D-488C-A966-0ADB5C61A67C}">
   <dimension ref="E2:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B128" zoomScale="99" workbookViewId="0">
-      <selection activeCell="L134" sqref="L134"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1566,20 +1746,20 @@
   <sheetData>
     <row r="2" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.3">
@@ -1605,15 +1785,30 @@
         <v>44826</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E6" s="1"/>
       <c r="F6" s="3">
         <v>44827</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F7" s="3">
@@ -1654,15 +1849,30 @@
       <c r="F12" s="3">
         <v>44833</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F13" s="3">
         <v>44834</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4">
+        <v>2.5</v>
+      </c>
       <c r="H13" s="4"/>
+      <c r="J13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F14" s="3">
@@ -1685,336 +1895,453 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F17" s="3">
         <v>44838</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I17">
+        <v>0.75</v>
+      </c>
+      <c r="J17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F18" s="3">
         <v>44839</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F19" s="3">
         <v>44840</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="I19">
+        <v>1.75</v>
+      </c>
+      <c r="J19">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F20" s="3">
         <v>44841</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F21" s="3">
         <v>44842</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F22" s="3">
         <v>44843</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F23" s="3">
         <v>44844</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F24" s="3">
         <v>44845</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4">
+        <v>0.75</v>
+      </c>
       <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>0.75</v>
+      </c>
+      <c r="J24">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F25" s="3">
         <v>44846</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F26" s="3">
         <v>44847</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G26" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I26">
+        <v>1.5</v>
+      </c>
+      <c r="J26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F27" s="3">
         <v>44848</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G27" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F28" s="3">
         <v>44849</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F29" s="3">
         <v>44850</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F30" s="3">
         <v>44851</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F31" s="3">
         <v>44852</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F32" s="3">
         <v>44853</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F33" s="3">
         <v>44854</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="I33">
+        <v>1.75</v>
+      </c>
+      <c r="J33">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F34" s="3">
         <v>44855</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F35" s="3">
         <v>44856</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F36" s="3">
         <v>44857</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F37" s="3">
         <v>44858</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F38" s="3">
         <v>44859</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F39" s="3">
         <v>44860</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F40" s="3">
         <v>44861</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I40">
+        <v>0.75</v>
+      </c>
+      <c r="J40">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F41" s="3">
         <v>44862</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F42" s="3">
         <v>44863</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F43" s="3">
         <v>44864</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F44" s="3">
         <v>44865</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F45" s="3">
         <v>44866</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F46" s="3">
         <v>44867</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F47" s="3">
         <v>44868</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F48" s="3">
         <v>44869</v>
       </c>
       <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F49" s="3">
         <v>44870</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4">
+        <v>2.5</v>
+      </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F50" s="3">
         <v>44871</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F51" s="3">
         <v>44872</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F52" s="3">
         <v>44873</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F53" s="3">
         <v>44874</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F54" s="3">
         <v>44875</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I54">
+        <v>1.5</v>
+      </c>
+      <c r="J54">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F55" s="3">
         <v>44876</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F56" s="3">
         <v>44877</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F57" s="3">
         <v>44878</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F58" s="3">
         <v>44879</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F59" s="3">
         <v>44880</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F60" s="3">
         <v>44881</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F61" s="3">
         <v>44882</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F62" s="3">
         <v>44883</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F63" s="3">
         <v>44884</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F64" s="3">
         <v>44885</v>
       </c>
@@ -2026,7 +2353,9 @@
         <v>44886</v>
       </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="4">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F66" s="3">
@@ -2522,38 +2851,38 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>0</v>
-      </c>
-      <c r="H139" s="8">
+        <v>23</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>0</v>
-      </c>
-      <c r="I139" s="8">
+        <v>20.65</v>
+      </c>
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>0</v>
-      </c>
-      <c r="J139" s="8">
+        <v>15.9</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>0</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E141" s="9" t="s">
@@ -2572,50 +2901,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>0</v>
-      </c>
-      <c r="H142" s="8">
+        <v>359.375</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>0</v>
-      </c>
-      <c r="I142" s="8">
+        <v>322.65625</v>
+      </c>
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>0</v>
-      </c>
-      <c r="J142" s="8">
+        <v>248.4375</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L142" s="8">
+        <v>406.25</v>
+      </c>
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>0</v>
+        <v>1336.71875</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2625,6 +2949,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/01 - Planificación del Trabajo/estadisticoHorasEmpleadas.xlsx
+++ b/01 - Planificación del Trabajo/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés Martín Yeves\Desktop\TP1\SE\TP1SE\01 - Planificación del Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50143903-467E-40DC-A295-124C0B9E22B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0389413A-427A-435B-B809-BCAD2DE3E4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1734,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6FB7-D46D-488C-A966-0ADB5C61A67C}">
   <dimension ref="E2:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B123" zoomScale="99" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -1746,20 +1746,20 @@
   <sheetData>
     <row r="2" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.3">
@@ -2851,38 +2851,38 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
         <v>23</v>
       </c>
-      <c r="H139" s="6">
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
         <v>20.65</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
         <v>15.9</v>
       </c>
-      <c r="J139" s="6">
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
         <v>26</v>
       </c>
-      <c r="L139" s="6" t="s">
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E141" s="9" t="s">
@@ -2901,45 +2901,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
         <v>359.375</v>
       </c>
-      <c r="H142" s="6">
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
         <v>322.65625</v>
       </c>
-      <c r="I142" s="6">
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>248.4375</v>
       </c>
-      <c r="J142" s="6">
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
         <v>406.25</v>
       </c>
-      <c r="L142" s="6">
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
         <v>1336.71875</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2949,11 +2954,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/01 - Planificación del Trabajo/estadisticoHorasEmpleadas.xlsx
+++ b/01 - Planificación del Trabajo/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés Martín Yeves\Desktop\TP1\SE\TP1SE\01 - Planificación del Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0389413A-427A-435B-B809-BCAD2DE3E4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD0A765-35AF-43CE-9A2B-1438CBBD8EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Número de Horas empleadas por los trabajadores:</t>
   </si>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -362,6 +362,18 @@
                 <c:pt idx="49">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -447,6 +459,21 @@
                 <c:pt idx="60">
                   <c:v>0.75</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -526,6 +553,18 @@
                 <c:pt idx="49">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -613,6 +652,21 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1732,10 +1786,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6FB7-D46D-488C-A966-0ADB5C61A67C}">
-  <dimension ref="E2:L143"/>
+  <dimension ref="E1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B123" zoomScale="99" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1744,22 +1800,39 @@
     <col min="4" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.3">
@@ -2348,7 +2421,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F65" s="3">
         <v>44886</v>
       </c>
@@ -2357,105 +2430,150 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F66" s="3">
         <v>44887</v>
       </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G66" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="I66">
+        <v>1.3</v>
+      </c>
+      <c r="J66">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F67" s="3">
         <v>44888</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J67">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F68" s="3">
         <v>44889</v>
       </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G68" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I68">
+        <v>3.5</v>
+      </c>
+      <c r="J68">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F69" s="3">
         <v>44890</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F70" s="3">
         <v>44891</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F71" s="3">
         <v>44892</v>
       </c>
-      <c r="G71" s="4"/>
+      <c r="G71" s="4">
+        <v>1.5</v>
+      </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F72" s="3">
         <v>44893</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F73" s="3">
         <v>44894</v>
       </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G73" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="I73">
+        <v>1.65</v>
+      </c>
+      <c r="J73">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="74" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F74" s="3">
         <v>44895</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F75" s="3">
         <v>44896</v>
       </c>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H75" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="I75">
+        <v>1.75</v>
+      </c>
+      <c r="J75">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="76" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F76" s="3">
         <v>44897</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F77" s="3">
         <v>44898</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F78" s="3">
         <v>44899</v>
       </c>
       <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F79" s="3">
         <v>44900</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F80" s="3">
         <v>44901</v>
       </c>
@@ -2851,38 +2969,38 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>23</v>
-      </c>
-      <c r="H139" s="8">
+        <v>30.25</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>20.65</v>
-      </c>
-      <c r="I139" s="8">
+        <v>27.849999999999998</v>
+      </c>
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>15.9</v>
-      </c>
-      <c r="J139" s="8">
+        <v>24.099999999999998</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>26</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E141" s="9" t="s">
@@ -2901,50 +3019,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>359.375</v>
-      </c>
-      <c r="H142" s="8">
+        <v>472.65625</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>322.65625</v>
-      </c>
-      <c r="I142" s="8">
+        <v>435.15624999999994</v>
+      </c>
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>248.4375</v>
-      </c>
-      <c r="J142" s="8">
+        <v>376.56249999999994</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>406.25</v>
-      </c>
-      <c r="L142" s="8">
+        <v>550</v>
+      </c>
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>1336.71875</v>
+        <v>1834.375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2954,6 +3067,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/01 - Planificación del Trabajo/estadisticoHorasEmpleadas.xlsx
+++ b/01 - Planificación del Trabajo/estadisticoHorasEmpleadas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés Martín Yeves\Desktop\TP1\SE\TP1SE\01 - Planificación del Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD0A765-35AF-43CE-9A2B-1438CBBD8EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D40141D-0348-40C5-AB71-983FEF25C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -228,45 +228,6 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -275,13 +236,13 @@
           <c:yMode val="edge"/>
           <c:x val="6.0949185346837888E-2"/>
           <c:y val="0.20889506601806815"/>
-          <c:w val="0.86935124270661734"/>
+          <c:w val="0.89152243775990003"/>
           <c:h val="0.6535751880288192"/>
         </c:manualLayout>
       </c:layout>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="standard"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -305,7 +266,6 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -373,6 +333,15 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,7 +374,6 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -473,6 +441,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,7 +476,6 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -564,6 +534,15 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,7 +575,6 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -667,6 +645,21 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,12 +678,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
+        <c:gapWidth val="124"/>
         <c:axId val="1510278608"/>
         <c:axId val="1510217040"/>
-        <c:axId val="1315253072"/>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1510278608"/>
         <c:scaling>
@@ -698,6 +689,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -791,46 +783,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:serAx>
-        <c:axId val="1315253072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1510217040"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1453,15 +1405,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
+      <xdr:colOff>549592</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>10476</xdr:rowOff>
+      <xdr:rowOff>16190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165734</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163561</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1788,10 +1740,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6FB7-D46D-488C-A966-0ADB5C61A67C}">
   <dimension ref="E1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1819,20 +1771,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.3">
@@ -2572,6 +2524,9 @@
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
+      <c r="J79">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F80" s="3">
@@ -2579,113 +2534,142 @@
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J80">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F81" s="3">
         <v>44902</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F82" s="3">
         <v>44903</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F83" s="3">
         <v>44904</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F84" s="3">
         <v>44905</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F85" s="3">
         <v>44906</v>
       </c>
-      <c r="G85" s="4"/>
+      <c r="G85" s="4">
+        <v>1.65</v>
+      </c>
       <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="86" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F86" s="3">
         <v>44907</v>
       </c>
-      <c r="G86" s="4"/>
+      <c r="G86" s="4">
+        <v>4.6500000000000004</v>
+      </c>
       <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J86">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F87" s="3">
         <v>44908</v>
       </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G87" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H87" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I87">
+        <v>1.5</v>
+      </c>
+      <c r="J87">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="88" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F88" s="3">
         <v>44909</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F89" s="3">
         <v>44910</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F90" s="3">
         <v>44911</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F91" s="3">
         <v>44912</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F92" s="3">
         <v>44913</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F93" s="3">
         <v>44914</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F94" s="3">
         <v>44915</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F95" s="3">
         <v>44916</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F96" s="3">
         <v>44917</v>
       </c>
@@ -2969,38 +2953,38 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>30.25</v>
-      </c>
-      <c r="H139" s="6">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
-        <v>27.849999999999998</v>
-      </c>
-      <c r="I139" s="6">
+        <v>29.349999999999998</v>
+      </c>
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
-        <v>24.099999999999998</v>
-      </c>
-      <c r="J139" s="6">
+        <v>31.75</v>
+      </c>
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>53.85</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E141" s="9" t="s">
@@ -3019,45 +3003,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>472.65625</v>
-      </c>
-      <c r="H142" s="6">
+        <v>594.53125</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
-        <v>435.15624999999994</v>
-      </c>
-      <c r="I142" s="6">
+        <v>458.59374999999994</v>
+      </c>
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>376.56249999999994</v>
-      </c>
-      <c r="J142" s="6">
+        <v>496.09375</v>
+      </c>
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-      <c r="L142" s="6">
+        <v>841.40625</v>
+      </c>
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>1834.375</v>
+        <v>2390.625</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -3067,11 +3056,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/01 - Planificación del Trabajo/estadisticoHorasEmpleadas.xlsx
+++ b/01 - Planificación del Trabajo/estadisticoHorasEmpleadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés Martín Yeves\Desktop\TP1\SE\TP1SE\01 - Planificación del Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D40141D-0348-40C5-AB71-983FEF25C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E8F0C4-4C56-4EC1-A207-D058FCEF7493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -343,6 +343,21 @@
                 <c:pt idx="82">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -445,6 +460,18 @@
                 <c:pt idx="82">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -544,6 +571,15 @@
                 <c:pt idx="82">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -659,6 +695,24 @@
                   <c:v>4.6500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1741,9 +1795,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1771,20 +1825,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.3">
@@ -2624,15 +2678,27 @@
       <c r="F89" s="3">
         <v>44910</v>
       </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
+      <c r="G89" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="H89" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J89">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="90" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F90" s="3">
         <v>44911</v>
       </c>
-      <c r="G90" s="4"/>
+      <c r="G90" s="4">
+        <v>2</v>
+      </c>
       <c r="H90" s="4"/>
+      <c r="J90">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="91" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F91" s="3">
@@ -2659,129 +2725,162 @@
       <c r="F94" s="3">
         <v>44915</v>
       </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
+      <c r="G94" s="4">
+        <v>2</v>
+      </c>
+      <c r="H94" s="4">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>3</v>
+      </c>
     </row>
     <row r="95" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F95" s="3">
         <v>44916</v>
       </c>
       <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+      <c r="H95" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="I95">
+        <v>1.75</v>
+      </c>
+      <c r="J95">
+        <v>4.25</v>
+      </c>
     </row>
     <row r="96" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F96" s="3">
         <v>44917</v>
       </c>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G96" s="4">
+        <v>2</v>
+      </c>
+      <c r="H96" s="4">
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F97" s="3">
         <v>44918</v>
       </c>
-      <c r="G97" s="4"/>
+      <c r="G97" s="4">
+        <v>2.5</v>
+      </c>
       <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J97">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="98" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F98" s="3">
         <v>44919</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F99" s="3">
         <v>44920</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F100" s="3">
         <v>44921</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F101" s="3">
         <v>44922</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F102" s="3">
         <v>44923</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F103" s="3">
         <v>44924</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F104" s="3">
         <v>44925</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F105" s="3">
         <v>44926</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F106" s="3">
         <v>44927</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F107" s="3">
         <v>44928</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F108" s="3">
         <v>44929</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F109" s="3">
         <v>44930</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F110" s="3">
         <v>44931</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F111" s="3">
         <v>44932</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F112" s="3">
         <v>44933</v>
       </c>
@@ -2953,38 +3052,38 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>38.049999999999997</v>
-      </c>
-      <c r="H139" s="8">
+        <v>50.05</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>29.349999999999998</v>
-      </c>
-      <c r="I139" s="8">
+        <v>39.599999999999994</v>
+      </c>
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>31.75</v>
-      </c>
-      <c r="J139" s="8">
+        <v>37.5</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>53.85</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E141" s="9" t="s">
@@ -3003,50 +3102,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>594.53125</v>
-      </c>
-      <c r="H142" s="8">
+        <v>782.03125</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>458.59374999999994</v>
-      </c>
-      <c r="I142" s="8">
+        <v>618.74999999999989</v>
+      </c>
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>496.09375</v>
-      </c>
-      <c r="J142" s="8">
+        <v>585.9375</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>841.40625</v>
-      </c>
-      <c r="L142" s="8">
+        <v>1071.875</v>
+      </c>
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>2390.625</v>
+        <v>3058.59375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -3056,6 +3150,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/01 - Planificación del Trabajo/estadisticoHorasEmpleadas.xlsx
+++ b/01 - Planificación del Trabajo/estadisticoHorasEmpleadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés Martín Yeves\Desktop\TP1\SE\TP1SE\01 - Planificación del Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E8F0C4-4C56-4EC1-A207-D058FCEF7493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EE5CF4-50DB-41B1-A4B8-61B2583DE8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -358,6 +358,18 @@
                 <c:pt idx="92">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -472,6 +484,9 @@
                 <c:pt idx="91">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -580,6 +595,15 @@
                 <c:pt idx="91">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -714,6 +738,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,9 +1828,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
+      <selection pane="bottomLeft" activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1825,20 +1858,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.3">
@@ -2870,7 +2903,9 @@
       <c r="F110" s="3">
         <v>44931</v>
       </c>
-      <c r="G110" s="4"/>
+      <c r="G110" s="4">
+        <v>2.5</v>
+      </c>
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="6:10" x14ac:dyDescent="0.3">
@@ -2887,112 +2922,138 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F113" s="3">
         <v>44934</v>
       </c>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4">
+        <v>1.4</v>
+      </c>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F114" s="3">
         <v>44935</v>
       </c>
-      <c r="G114" s="4"/>
+      <c r="G114" s="4">
+        <v>1.25</v>
+      </c>
       <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <v>2.5</v>
+      </c>
+      <c r="J114">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="115" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F115" s="3">
         <v>44936</v>
       </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G115" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="H115" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="I115">
+        <v>4.25</v>
+      </c>
+      <c r="J115">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="116" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F116" s="3">
         <v>44937</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <v>3.5</v>
+      </c>
+      <c r="J116">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="117" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F117" s="3">
         <v>44938</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F118" s="3">
         <v>44939</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F119" s="3">
         <v>44940</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F120" s="3">
         <v>44941</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F121" s="3">
         <v>44942</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F122" s="3">
         <v>44943</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F123" s="3">
         <v>44944</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F124" s="3">
         <v>44945</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F125" s="3">
         <v>44946</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F126" s="3">
         <v>44947</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F127" s="3">
         <v>44948</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F128" s="3">
         <v>44949</v>
       </c>
@@ -3052,38 +3113,38 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>50.05</v>
-      </c>
-      <c r="H139" s="6">
+        <v>56.449999999999996</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
-        <v>39.599999999999994</v>
-      </c>
-      <c r="I139" s="6">
+        <v>40.849999999999994</v>
+      </c>
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
-        <v>37.5</v>
-      </c>
-      <c r="J139" s="6">
+        <v>47.75</v>
+      </c>
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
-        <v>68.599999999999994</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E141" s="9" t="s">
@@ -3102,45 +3163,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>782.03125</v>
-      </c>
-      <c r="H142" s="6">
+        <v>882.03124999999989</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
-        <v>618.74999999999989</v>
-      </c>
-      <c r="I142" s="6">
+        <v>638.28124999999989</v>
+      </c>
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>585.9375</v>
-      </c>
-      <c r="J142" s="6">
+        <v>746.09375</v>
+      </c>
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
-        <v>1071.875</v>
-      </c>
-      <c r="L142" s="6">
+        <v>1142.1875</v>
+      </c>
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>3058.59375</v>
+        <v>3408.59375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -3150,11 +3216,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
